--- a/TestData/JTPS-DEVQA/RefinanceTypes.xlsx
+++ b/TestData/JTPS-DEVQA/RefinanceTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="113">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>allrows,value^ZXY</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Refinance Types</t>
   </si>
 </sst>
 </file>
@@ -972,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,8 +1067,12 @@
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="11" t="s">
         <v>17</v>
@@ -1107,8 +1117,12 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
         <v>17</v>

--- a/TestData/JTPS-DEVQA/RefinanceTypes.xlsx
+++ b/TestData/JTPS-DEVQA/RefinanceTypes.xlsx
@@ -978,12 +978,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.5703125" customWidth="1"/>
     <col min="15" max="15" width="25.85546875" customWidth="1"/>
     <col min="16" max="16" width="23.7109375" customWidth="1"/>

--- a/TestData/JTPS-DEVQA/RefinanceTypes.xlsx
+++ b/TestData/JTPS-DEVQA/RefinanceTypes.xlsx
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
